--- a/Project/Scrum Board.xlsx
+++ b/Project/Scrum Board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\JabRef\jabref\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6D4A0-E1D4-43F3-8958-F95AE1774D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1C4F7-EFC9-4229-9951-783ACE1C550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Low - not required for now</t>
   </si>
@@ -6983,7 +6983,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7015,9 +7015,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="41"/>
       <c r="B2" s="40"/>
       <c r="I2" s="1"/>
     </row>

--- a/Project/Scrum Board.xlsx
+++ b/Project/Scrum Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\JabRef\jabref\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F65E21-BAC6-4EC4-A64F-B7EC5A40578D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585FEE52-FEF3-4531-B650-ADC5E8A8355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="2715" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Backlog" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>Low - not required for now</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Merging of all files in a final deliverable and reviewing</t>
   </si>
 </sst>
 </file>
@@ -863,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1703,12 +1706,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="16"/>
